--- a/Data/Uptake_Secretion_Rates/mmc4.xlsx
+++ b/Data/Uptake_Secretion_Rates/mmc4.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10114"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hooman\Dropbox (UCSD SBRG)\CHO\Curation\Community\Final\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pablodigiusto/Documents/GitHub/Whole-Cell-Network-Reconstruction-for-CHO-cells/Data/Uptake_Secretion_Rates/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E63FADE-2B22-0F4A-9F1C-877BFA4112AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="24400" windowHeight="15020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main Text Constraints" sheetId="1" r:id="rId1"/>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="119">
   <si>
     <t>Carinhas 2013</t>
   </si>
@@ -64,9 +65,6 @@
     <t>EX_Lcystin_e_</t>
   </si>
   <si>
-    <t>EX_ac_e_</t>
-  </si>
-  <si>
     <t>EX_ahcys_e_</t>
   </si>
   <si>
@@ -97,9 +95,6 @@
     <t>EX_fol_e_</t>
   </si>
   <si>
-    <t>EX_for_e_</t>
-  </si>
-  <si>
     <t>EX_glc_e_</t>
   </si>
   <si>
@@ -112,9 +107,6 @@
     <t>EX_gly_e_</t>
   </si>
   <si>
-    <t>EX_glyc_e_</t>
-  </si>
-  <si>
     <t>EX_gthox_e_</t>
   </si>
   <si>
@@ -260,12 +252,138 @@
   </si>
   <si>
     <t>Default model bounds</t>
+  </si>
+  <si>
+    <t>Reaction</t>
+  </si>
+  <si>
+    <t>DM_igg_g</t>
+  </si>
+  <si>
+    <t>EX_ac_e</t>
+  </si>
+  <si>
+    <t>EX_ala_L_e</t>
+  </si>
+  <si>
+    <t>EX_arg_L_e</t>
+  </si>
+  <si>
+    <t>EX_asn_L_e</t>
+  </si>
+  <si>
+    <t>EX_asp_L_e</t>
+  </si>
+  <si>
+    <t>EX_chol_e</t>
+  </si>
+  <si>
+    <t>EX_cit_e</t>
+  </si>
+  <si>
+    <t>EX_cys_L_e</t>
+  </si>
+  <si>
+    <t>EX_for_e</t>
+  </si>
+  <si>
+    <t>EX_glc_e</t>
+  </si>
+  <si>
+    <t>EX_gln_L_e</t>
+  </si>
+  <si>
+    <t>EX_glu_L_e</t>
+  </si>
+  <si>
+    <t>EX_gly_e</t>
+  </si>
+  <si>
+    <t>EX_glyc_e</t>
+  </si>
+  <si>
+    <t>EX_his_L_e</t>
+  </si>
+  <si>
+    <t>EX_ile_L_e</t>
+  </si>
+  <si>
+    <t>EX_lac_L_e</t>
+  </si>
+  <si>
+    <t>EX_leu_L_e</t>
+  </si>
+  <si>
+    <t>EX_lys_L_e</t>
+  </si>
+  <si>
+    <t>EX_mal_L_e</t>
+  </si>
+  <si>
+    <t>EX_met_L_e</t>
+  </si>
+  <si>
+    <t>EX_nh4_e</t>
+  </si>
+  <si>
+    <t>EX_o2_e</t>
+  </si>
+  <si>
+    <t>EX_phe_L_e</t>
+  </si>
+  <si>
+    <t>EX_pro_L_e</t>
+  </si>
+  <si>
+    <t>EX_pyr_e</t>
+  </si>
+  <si>
+    <t>EX_ser_L_e</t>
+  </si>
+  <si>
+    <t>EX_succ_e</t>
+  </si>
+  <si>
+    <t>EX_thr_L_e</t>
+  </si>
+  <si>
+    <t>EX_trp_L_e</t>
+  </si>
+  <si>
+    <t>EX_tyr_L_e</t>
+  </si>
+  <si>
+    <t>EX_val_L_e</t>
+  </si>
+  <si>
+    <t>EX_h2o_e</t>
+  </si>
+  <si>
+    <t>EX_hco3_e</t>
+  </si>
+  <si>
+    <t>EX_pi_e</t>
+  </si>
+  <si>
+    <t>EX_so4_e</t>
+  </si>
+  <si>
+    <t>SK_Asn_X_Ser_Thr_r</t>
+  </si>
+  <si>
+    <t>SK_Tyr_ggn_c</t>
+  </si>
+  <si>
+    <t>SK_Ser_Thr_g</t>
+  </si>
+  <si>
+    <t>SK_pre_prot_r</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -322,42 +440,29 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -378,9 +483,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -418,9 +523,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -455,7 +560,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -490,7 +595,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -663,53 +768,57 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H42" sqref="H42"/>
+    <sheetView tabSelected="1" zoomScale="168" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="24"/>
-    <col min="2" max="1025" width="8.625"/>
+    <col min="6" max="7" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="1025" width="8.6640625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B2" s="12" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A1" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12" t="s">
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12" t="s">
+      <c r="G2" s="8"/>
+      <c r="H2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="12"/>
+      <c r="I2" s="8"/>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>77</v>
+      </c>
       <c r="B3" s="2" t="s">
         <v>3</v>
       </c>
@@ -735,9 +844,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>78</v>
       </c>
       <c r="B4" s="3">
         <v>2.0242245811194201E-5</v>
@@ -751,10 +860,10 @@
       <c r="E4" s="3">
         <v>1.1688265564019399E-5</v>
       </c>
-      <c r="F4" s="5">
+      <c r="F4" s="4">
         <v>1.3030000000000001E-5</v>
       </c>
-      <c r="G4" s="5">
+      <c r="G4" s="4">
         <v>2.4369999999999999E-5</v>
       </c>
       <c r="H4" s="3">
@@ -763,12 +872,12 @@
       <c r="I4" s="3">
         <v>4.99309286205826E-6</v>
       </c>
-      <c r="L4" s="5"/>
-      <c r="M4" s="5"/>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>79</v>
       </c>
       <c r="B5" s="3">
         <v>7.38007E-5</v>
@@ -787,9 +896,9 @@
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>16</v>
+        <v>80</v>
       </c>
       <c r="B6" s="2">
         <v>2.3726937E-2</v>
@@ -815,11 +924,11 @@
       <c r="I6" s="2">
         <v>2.1420675389581E-2</v>
       </c>
-      <c r="K6" s="6"/>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K6" s="5"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>17</v>
+        <v>81</v>
       </c>
       <c r="B7" s="2">
         <v>-1.103321E-2</v>
@@ -845,11 +954,11 @@
       <c r="I7" s="2">
         <v>-2.34432768504684E-2</v>
       </c>
-      <c r="K7" s="6"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K7" s="5"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>18</v>
+        <v>82</v>
       </c>
       <c r="B8" s="2">
         <v>-7.4723247000000007E-2</v>
@@ -875,11 +984,11 @@
       <c r="I8" s="2">
         <v>-8.3942048223114199E-2</v>
       </c>
-      <c r="K8" s="6"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K8" s="5"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>19</v>
+        <v>83</v>
       </c>
       <c r="B9" s="2">
         <v>-2.5166052000000001E-2</v>
@@ -905,11 +1014,11 @@
       <c r="I9" s="2">
         <v>-3.6260856247532498E-3</v>
       </c>
-      <c r="K9" s="6"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K9" s="5"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>84</v>
       </c>
       <c r="B10" s="2">
         <v>-3.0996309999999998E-3</v>
@@ -928,9 +1037,9 @@
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>85</v>
       </c>
       <c r="B11" s="2">
         <v>2.214022E-3</v>
@@ -949,9 +1058,9 @@
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>86</v>
       </c>
       <c r="B12" s="2">
         <v>-5.2197800000000003E-3</v>
@@ -977,11 +1086,11 @@
       <c r="I12" s="2">
         <v>-5.2197800000000003E-3</v>
       </c>
-      <c r="K12" s="6"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K12" s="5"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>25</v>
+        <v>87</v>
       </c>
       <c r="B13" s="2">
         <v>1.2583026000000001E-2</v>
@@ -1000,9 +1109,9 @@
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>26</v>
+        <v>88</v>
       </c>
       <c r="B14" s="2">
         <v>-0.271070111</v>
@@ -1028,11 +1137,11 @@
       <c r="I14" s="2">
         <v>-0.43064722580617598</v>
       </c>
-      <c r="K14" s="6"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K14" s="5"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>27</v>
+        <v>89</v>
       </c>
       <c r="B15" s="2">
         <v>2.767528E-3</v>
@@ -1043,26 +1152,26 @@
       <c r="D15" s="2">
         <v>3.3210299999999999E-4</v>
       </c>
-      <c r="E15" s="7">
+      <c r="E15" s="2">
         <v>3.1365310000000001E-3</v>
       </c>
-      <c r="F15" s="8">
+      <c r="F15">
         <v>-6.7400000000000002E-2</v>
       </c>
-      <c r="G15" s="8">
+      <c r="G15">
         <v>-3.8370000000000001E-2</v>
       </c>
-      <c r="H15" s="7">
+      <c r="H15" s="2">
         <v>-5.1768232202427399E-2</v>
       </c>
       <c r="I15" s="2">
         <v>-7.6770358417257406E-2</v>
       </c>
-      <c r="K15" s="6"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K15" s="5"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>28</v>
+        <v>90</v>
       </c>
       <c r="B16" s="2">
         <v>-1.2398523999999999E-2</v>
@@ -1073,25 +1182,25 @@
       <c r="D16" s="2">
         <v>-1.3247231999999999E-2</v>
       </c>
-      <c r="E16" s="7">
+      <c r="E16" s="2">
         <v>-1.3394834E-2</v>
       </c>
-      <c r="F16" s="8">
+      <c r="F16">
         <v>9.4999999999999998E-3</v>
       </c>
-      <c r="G16" s="8">
+      <c r="G16">
         <v>2.5699999999999998E-3</v>
       </c>
-      <c r="H16" s="7">
+      <c r="H16" s="2">
         <v>2.2711835323365901E-3</v>
       </c>
       <c r="I16" s="2">
         <v>-3.1206812138608298E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>29</v>
+        <v>91</v>
       </c>
       <c r="B17" s="2">
         <v>6.97417E-3</v>
@@ -1102,26 +1211,26 @@
       <c r="D17" s="2">
         <v>7.3431729999999997E-3</v>
       </c>
-      <c r="E17" s="7">
+      <c r="E17" s="2">
         <v>8.9298889999999999E-3</v>
       </c>
-      <c r="F17" s="8">
+      <c r="F17">
         <v>2.0899999999999998E-2</v>
       </c>
-      <c r="G17" s="8">
+      <c r="G17">
         <v>3.0200000000000001E-3</v>
       </c>
-      <c r="H17" s="7">
+      <c r="H17" s="2">
         <v>2.22404656478364E-2</v>
       </c>
       <c r="I17" s="2">
         <v>2.2541656507258302E-2</v>
       </c>
-      <c r="K17" s="6"/>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K17" s="5"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>30</v>
+        <v>92</v>
       </c>
       <c r="B18" s="2">
         <v>1.5129151E-2</v>
@@ -1132,17 +1241,17 @@
       <c r="D18" s="2">
         <v>1.5387454E-2</v>
       </c>
-      <c r="E18" s="7">
+      <c r="E18" s="2">
         <v>1.4870849E-2</v>
       </c>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="7"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
       <c r="I18" s="2"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>32</v>
+        <v>93</v>
       </c>
       <c r="B19" s="2">
         <v>-6.4575650000000002E-3</v>
@@ -1153,26 +1262,26 @@
       <c r="D19" s="2">
         <v>-3.726937E-3</v>
       </c>
-      <c r="E19" s="7">
+      <c r="E19" s="2">
         <v>-5.9778599999999998E-3</v>
       </c>
-      <c r="F19" s="8">
+      <c r="F19">
         <v>-4.0699999999999998E-3</v>
       </c>
-      <c r="G19" s="8">
+      <c r="G19">
         <v>-2.14E-3</v>
       </c>
-      <c r="H19" s="7">
+      <c r="H19" s="2">
         <v>-3.7637827840692499E-3</v>
       </c>
       <c r="I19" s="2">
         <v>-7.0497494177118704E-3</v>
       </c>
-      <c r="K19" s="6"/>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K19" s="5"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>34</v>
+        <v>94</v>
       </c>
       <c r="B20" s="2">
         <v>-1.1808117999999999E-2</v>
@@ -1183,26 +1292,26 @@
       <c r="D20" s="2">
         <v>-1.2324722999999999E-2</v>
       </c>
-      <c r="E20" s="7">
+      <c r="E20" s="2">
         <v>-1.3062730999999999E-2</v>
       </c>
-      <c r="F20" s="8">
+      <c r="F20">
         <v>-1.055E-2</v>
       </c>
-      <c r="G20" s="8">
+      <c r="G20">
         <v>-4.5799999999999999E-3</v>
       </c>
-      <c r="H20" s="7">
+      <c r="H20" s="2">
         <v>-1.0274069563710599E-2</v>
       </c>
       <c r="I20" s="2">
         <v>-2.00870618308269E-2</v>
       </c>
-      <c r="K20" s="6"/>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K20" s="5"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>37</v>
+        <v>95</v>
       </c>
       <c r="B21" s="2">
         <v>0.135608856</v>
@@ -1213,26 +1322,26 @@
       <c r="D21" s="2">
         <v>0.13439114399999999</v>
       </c>
-      <c r="E21" s="7">
+      <c r="E21" s="2">
         <v>0.122656827</v>
       </c>
-      <c r="F21" s="8">
+      <c r="F21">
         <v>0.1208</v>
       </c>
-      <c r="G21" s="8">
+      <c r="G21">
         <v>0.10589999999999999</v>
       </c>
-      <c r="H21" s="7">
+      <c r="H21" s="2">
         <v>0.56760462733834804</v>
       </c>
       <c r="I21" s="2">
         <v>0.54509981389095896</v>
       </c>
-      <c r="K21" s="6"/>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K21" s="5"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>38</v>
+        <v>96</v>
       </c>
       <c r="B22" s="2">
         <v>-2.0184502E-2</v>
@@ -1243,26 +1352,26 @@
       <c r="D22" s="2">
         <v>-1.9520295E-2</v>
       </c>
-      <c r="E22" s="7">
+      <c r="E22" s="2">
         <v>-2.4022140000000001E-2</v>
       </c>
-      <c r="F22" s="8">
+      <c r="F22">
         <v>-1.567E-2</v>
       </c>
-      <c r="G22" s="8">
+      <c r="G22">
         <v>-7.9699999999999997E-3</v>
       </c>
-      <c r="H22" s="7">
+      <c r="H22" s="2">
         <v>-1.5786669349518501E-2</v>
       </c>
       <c r="I22" s="2">
         <v>-2.44399784316583E-2</v>
       </c>
-      <c r="K22" s="6"/>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K22" s="5"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>39</v>
+        <v>97</v>
       </c>
       <c r="B23" s="2">
         <v>-1.2583026000000001E-2</v>
@@ -1273,26 +1382,26 @@
       <c r="D23" s="2">
         <v>-1.5350554000000001E-2</v>
       </c>
-      <c r="E23" s="7">
+      <c r="E23" s="2">
         <v>-1.5867158999999999E-2</v>
       </c>
-      <c r="F23" s="8">
+      <c r="F23">
         <v>-1.4030000000000001E-2</v>
       </c>
-      <c r="G23" s="8">
+      <c r="G23">
         <v>-7.1399999999999996E-3</v>
       </c>
-      <c r="H23" s="7">
+      <c r="H23" s="2">
         <v>-9.8048619332833202E-3</v>
       </c>
       <c r="I23" s="2">
         <v>-1.7011307986217E-2</v>
       </c>
-      <c r="K23" s="6"/>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K23" s="5"/>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>40</v>
+        <v>98</v>
       </c>
       <c r="B24" s="2">
         <v>1.660517E-3</v>
@@ -1311,9 +1420,9 @@
       <c r="H24" s="2"/>
       <c r="I24" s="2"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>41</v>
+        <v>99</v>
       </c>
       <c r="B25" s="2">
         <v>-4.7970479999999999E-3</v>
@@ -1339,11 +1448,11 @@
       <c r="I25" s="2">
         <v>-6.9109958383999602E-3</v>
       </c>
-      <c r="K25" s="6"/>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K25" s="5"/>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>42</v>
+        <v>100</v>
       </c>
       <c r="B26" s="2">
         <v>4.3763837999999999E-2</v>
@@ -1369,11 +1478,11 @@
       <c r="I26" s="2">
         <v>0.10710092030113701</v>
       </c>
-      <c r="K26" s="6"/>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K26" s="5"/>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>43</v>
+        <v>101</v>
       </c>
       <c r="B27" s="2">
         <v>-1.1274725269999999</v>
@@ -1400,9 +1509,9 @@
         <v>-1.1274725269999999</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>45</v>
+        <v>102</v>
       </c>
       <c r="B28" s="2">
         <v>-6.4575650000000002E-3</v>
@@ -1428,11 +1537,11 @@
       <c r="I28" s="2">
         <v>-9.1410979134724495E-3</v>
       </c>
-      <c r="K28" s="6"/>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K28" s="5"/>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>47</v>
+        <v>103</v>
       </c>
       <c r="B29" s="2">
         <v>-1.1623616E-2</v>
@@ -1458,11 +1567,11 @@
       <c r="I29" s="2">
         <v>-1.2022354621106599E-2</v>
       </c>
-      <c r="K29" s="6"/>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K29" s="5"/>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>49</v>
+        <v>104</v>
       </c>
       <c r="B30" s="2">
         <v>-1.0774908E-2</v>
@@ -1481,9 +1590,9 @@
       <c r="H30" s="2"/>
       <c r="I30" s="2"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>50</v>
+        <v>105</v>
       </c>
       <c r="B31" s="2">
         <v>-4.3062731E-2</v>
@@ -1509,11 +1618,11 @@
       <c r="I31" s="2">
         <v>-5.7425446019633897E-2</v>
       </c>
-      <c r="K31" s="6"/>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K31" s="5"/>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>51</v>
+        <v>106</v>
       </c>
       <c r="B32" s="2">
         <v>4.0590400000000001E-4</v>
@@ -1532,9 +1641,9 @@
       <c r="H32" s="2"/>
       <c r="I32" s="2"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>52</v>
+        <v>107</v>
       </c>
       <c r="B33" s="2">
         <v>-1.5313653E-2</v>
@@ -1560,11 +1669,11 @@
       <c r="I33" s="2">
         <v>-1.9539435756039902E-2</v>
       </c>
-      <c r="K33" s="6"/>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K33" s="5"/>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>53</v>
+        <v>108</v>
       </c>
       <c r="B34" s="2">
         <v>-3.1734319999999999E-3</v>
@@ -1591,9 +1700,9 @@
         <v>-4.1090042673554402E-3</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>54</v>
+        <v>109</v>
       </c>
       <c r="B35" s="2">
         <v>-5.2767530000000003E-3</v>
@@ -1619,11 +1728,11 @@
       <c r="I35" s="2">
         <v>-8.9619838430893706E-3</v>
       </c>
-      <c r="K35" s="6"/>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K35" s="5"/>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>56</v>
+        <v>110</v>
       </c>
       <c r="B36" s="2">
         <v>-1.5092250999999999E-2</v>
@@ -1649,11 +1758,11 @@
       <c r="I36" s="2">
         <v>-2.15996214412797E-2</v>
       </c>
-      <c r="K36" s="6"/>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K36" s="5"/>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>57</v>
+        <v>111</v>
       </c>
       <c r="B37" s="2">
         <v>-1000</v>
@@ -1680,9 +1789,9 @@
         <v>-1000</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>58</v>
+        <v>112</v>
       </c>
       <c r="B38" s="2">
         <v>-1000</v>
@@ -1709,9 +1818,9 @@
         <v>-1000</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>59</v>
+        <v>113</v>
       </c>
       <c r="B39" s="2">
         <v>-1000</v>
@@ -1738,9 +1847,9 @@
         <v>-1000</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>60</v>
+        <v>114</v>
       </c>
       <c r="B40" s="2">
         <v>-1000</v>
@@ -1767,9 +1876,9 @@
         <v>-1000</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>61</v>
+        <v>115</v>
       </c>
       <c r="B41" s="2">
         <v>-0.1</v>
@@ -1796,107 +1905,107 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
+        <v>116</v>
+      </c>
+      <c r="B42" s="2">
+        <v>-0.1</v>
+      </c>
+      <c r="C42" s="2">
+        <v>-0.1</v>
+      </c>
+      <c r="D42" s="2">
+        <v>-0.1</v>
+      </c>
+      <c r="E42" s="2">
+        <v>-0.1</v>
+      </c>
+      <c r="F42" s="2">
+        <v>-0.1</v>
+      </c>
+      <c r="G42" s="2">
+        <v>-0.1</v>
+      </c>
+      <c r="H42" s="2">
+        <v>-0.1</v>
+      </c>
+      <c r="I42" s="2">
+        <v>-0.1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>117</v>
+      </c>
+      <c r="B43" s="2">
+        <v>-0.1</v>
+      </c>
+      <c r="C43" s="2">
+        <v>-0.1</v>
+      </c>
+      <c r="D43" s="2">
+        <v>-0.1</v>
+      </c>
+      <c r="E43" s="2">
+        <v>-0.1</v>
+      </c>
+      <c r="F43" s="2">
+        <v>-0.1</v>
+      </c>
+      <c r="G43" s="2">
+        <v>-0.1</v>
+      </c>
+      <c r="H43" s="2">
+        <v>-0.1</v>
+      </c>
+      <c r="I43" s="2">
+        <v>-0.1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>118</v>
+      </c>
+      <c r="B44" s="2">
+        <v>-0.1</v>
+      </c>
+      <c r="C44" s="2">
+        <v>-0.1</v>
+      </c>
+      <c r="D44" s="2">
+        <v>-0.1</v>
+      </c>
+      <c r="E44" s="2">
+        <v>-0.1</v>
+      </c>
+      <c r="F44" s="2">
+        <v>-0.1</v>
+      </c>
+      <c r="G44" s="2">
+        <v>-0.1</v>
+      </c>
+      <c r="H44" s="2">
+        <v>-0.1</v>
+      </c>
+      <c r="I44" s="2">
+        <v>-0.1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
         <v>62</v>
       </c>
-      <c r="B42" s="2">
-        <v>-0.1</v>
-      </c>
-      <c r="C42" s="2">
-        <v>-0.1</v>
-      </c>
-      <c r="D42" s="2">
-        <v>-0.1</v>
-      </c>
-      <c r="E42" s="2">
-        <v>-0.1</v>
-      </c>
-      <c r="F42" s="2">
-        <v>-0.1</v>
-      </c>
-      <c r="G42" s="2">
-        <v>-0.1</v>
-      </c>
-      <c r="H42" s="2">
-        <v>-0.1</v>
-      </c>
-      <c r="I42" s="2">
-        <v>-0.1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>63</v>
-      </c>
-      <c r="B43" s="2">
-        <v>-0.1</v>
-      </c>
-      <c r="C43" s="2">
-        <v>-0.1</v>
-      </c>
-      <c r="D43" s="2">
-        <v>-0.1</v>
-      </c>
-      <c r="E43" s="2">
-        <v>-0.1</v>
-      </c>
-      <c r="F43" s="2">
-        <v>-0.1</v>
-      </c>
-      <c r="G43" s="2">
-        <v>-0.1</v>
-      </c>
-      <c r="H43" s="2">
-        <v>-0.1</v>
-      </c>
-      <c r="I43" s="2">
-        <v>-0.1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>64</v>
-      </c>
-      <c r="B44" s="2">
-        <v>-0.1</v>
-      </c>
-      <c r="C44" s="2">
-        <v>-0.1</v>
-      </c>
-      <c r="D44" s="2">
-        <v>-0.1</v>
-      </c>
-      <c r="E44" s="2">
-        <v>-0.1</v>
-      </c>
-      <c r="F44" s="2">
-        <v>-0.1</v>
-      </c>
-      <c r="G44" s="2">
-        <v>-0.1</v>
-      </c>
-      <c r="H44" s="2">
-        <v>-0.1</v>
-      </c>
-      <c r="I44" s="2">
-        <v>-0.1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>65</v>
-      </c>
-      <c r="B46" s="4">
+      <c r="B46" s="2">
         <v>2.16289085010592E-2</v>
       </c>
-      <c r="C46" s="4">
+      <c r="C46" s="2">
         <v>2.0188697111175699E-2</v>
       </c>
-      <c r="D46" s="4">
+      <c r="D46" s="2">
         <v>1.4507146871662499E-2</v>
       </c>
-      <c r="E46" s="4">
+      <c r="E46" s="2">
         <v>2.8658998618175401E-2</v>
       </c>
       <c r="F46">
@@ -1905,45 +2014,45 @@
       <c r="G46">
         <v>9.6964031853442895E-3</v>
       </c>
-      <c r="H46" s="10">
+      <c r="H46" s="2">
         <v>1.9022788810162901E-2</v>
       </c>
-      <c r="I46" s="4">
+      <c r="I46" s="2">
         <v>3.3714771199983097E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>66</v>
-      </c>
-      <c r="B47" s="4">
+        <v>63</v>
+      </c>
+      <c r="B47" s="2">
         <v>3.0608109916761501E-2</v>
       </c>
-      <c r="C47" s="4">
+      <c r="C47" s="2">
         <v>2.4191801290054299E-2</v>
       </c>
-      <c r="D47" s="4">
+      <c r="D47" s="2">
         <v>3.8400662430630297E-2</v>
       </c>
-      <c r="E47" s="4">
+      <c r="E47" s="2">
         <v>2.82505808359962E-2</v>
       </c>
-      <c r="F47" s="4">
+      <c r="F47" s="2">
         <v>2.47465437788018E-2</v>
       </c>
-      <c r="G47" s="4">
+      <c r="G47" s="2">
         <v>1.1612903225806499E-2</v>
       </c>
-      <c r="H47" s="4">
+      <c r="H47" s="2">
         <v>2.5397423827152901E-2</v>
       </c>
-      <c r="I47" s="4">
+      <c r="I47" s="2">
         <v>2.3557518817138998E-2</v>
       </c>
     </row>
-    <row r="49" spans="6:6" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F49" s="9" t="s">
-        <v>79</v>
+    <row r="49" spans="6:6" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F49" s="6" t="s">
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -1959,108 +2068,108 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:N57"/>
   <sheetViews>
     <sheetView topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="24"/>
-    <col min="2" max="8" width="12.75"/>
-    <col min="9" max="1025" width="8.625"/>
+    <col min="2" max="8" width="12.6640625"/>
+    <col min="9" max="1025" width="8.6640625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
-      <c r="K1" s="11"/>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B2" s="12" t="s">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B2" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="J2" s="8"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="9"/>
+      <c r="N2" s="9"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B3" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12" t="s">
+      <c r="C3" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="I2" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="J2" s="12"/>
-      <c r="L2" s="13"/>
-      <c r="M2" s="13"/>
-      <c r="N2" s="13"/>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B3" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="E3" s="2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="H3" s="2"/>
       <c r="I3" s="2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>11</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="I4" s="3">
         <v>4.8315843384076102E-6</v>
@@ -2069,7 +2178,7 @@
         <v>4.8288133574318999E-6</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -2085,7 +2194,7 @@
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -2101,9 +2210,9 @@
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -2117,9 +2226,9 @@
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B8" s="2">
         <v>9.7222222222222206E-3</v>
@@ -2149,9 +2258,9 @@
         <v>7.6891357965280904E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B9" s="2">
         <v>-1.2962962962963001E-2</v>
@@ -2181,9 +2290,9 @@
         <v>-8.16502883252972E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -2201,9 +2310,9 @@
         <v>-6.9499682419141798E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B11" s="2">
         <v>-1.85185185185185E-3</v>
@@ -2233,9 +2342,9 @@
         <v>9.6183257138550405E-4</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -2249,9 +2358,9 @@
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -2265,9 +2374,9 @@
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -2287,9 +2396,9 @@
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B15" s="2">
         <v>-5.0925925925925904E-3</v>
@@ -2317,9 +2426,9 @@
         <v>-5.2197800000000003E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -2333,9 +2442,9 @@
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B17" s="2">
         <v>-0.93101851851851902</v>
@@ -2365,9 +2474,9 @@
         <v>-0.460145841335447</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B18" s="2">
         <v>-0.16712962962962999</v>
@@ -2397,9 +2506,9 @@
         <v>-2.84223246073535E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B19" s="2">
         <v>2.4074074074074098E-2</v>
@@ -2429,9 +2538,9 @@
         <v>4.7624926396211201E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B20" s="2">
         <v>1.34259259259259E-2</v>
@@ -2459,9 +2568,9 @@
         <v>3.24905836890724E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -2475,9 +2584,9 @@
       <c r="I21" s="2"/>
       <c r="J21" s="2"/>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B22" s="2">
         <v>-5.0925925925925904E-3</v>
@@ -2507,9 +2616,9 @@
         <v>-4.2056745295978798E-3</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -2523,9 +2632,9 @@
       <c r="I23" s="2"/>
       <c r="J23" s="2"/>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B24" s="2">
         <v>-2.96296296296296E-2</v>
@@ -2555,9 +2664,9 @@
         <v>-1.1478702105148101E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
@@ -2571,9 +2680,9 @@
       <c r="I25" s="2"/>
       <c r="J25" s="2"/>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
@@ -2587,9 +2696,9 @@
       <c r="I26" s="2"/>
       <c r="J26" s="2"/>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B27" s="2">
         <v>1.38657407407407</v>
@@ -2619,9 +2728,9 @@
         <v>0.69788796908714301</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B28" s="2">
         <v>-3.1944444444444497E-2</v>
@@ -2651,9 +2760,9 @@
         <v>-1.7135156457506202E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B29" s="2">
         <v>-1.9907407407407401E-2</v>
@@ -2683,9 +2792,9 @@
         <v>-9.83254157210732E-3</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
@@ -2705,9 +2814,9 @@
       <c r="I30" s="2"/>
       <c r="J30" s="2"/>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B31" s="2">
         <v>-7.8703703703703696E-3</v>
@@ -2737,9 +2846,9 @@
         <v>-5.26783301569703E-3</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B32" s="2">
         <v>0.125</v>
@@ -2767,9 +2876,9 @@
         <v>0.10762294598915299</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B33" s="2">
         <v>-1.1274725269999999</v>
@@ -2799,9 +2908,9 @@
         <v>-1.1274725269999999</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
@@ -2815,9 +2924,9 @@
       <c r="I34" s="2"/>
       <c r="J34" s="2"/>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B35" s="2">
         <v>-1.34259259259259E-2</v>
@@ -2847,9 +2956,9 @@
         <v>-6.3161827105975496E-3</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
@@ -2863,9 +2972,9 @@
       <c r="I36" s="2"/>
       <c r="J36" s="2"/>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B37" s="2">
         <v>-1.38888888888889E-3</v>
@@ -2895,9 +3004,9 @@
         <v>-6.5403606937575604E-3</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
@@ -2911,9 +3020,9 @@
       <c r="I38" s="2"/>
       <c r="J38" s="2"/>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
@@ -2933,9 +3042,9 @@
       <c r="I39" s="2"/>
       <c r="J39" s="2"/>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B40" s="2">
         <v>-3.4722222222222203E-2</v>
@@ -2965,9 +3074,9 @@
         <v>-5.0418066598710003E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
@@ -2987,9 +3096,9 @@
       <c r="I41" s="2"/>
       <c r="J41" s="2"/>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B42" s="2">
         <v>-1.9907407407407401E-2</v>
@@ -3019,9 +3128,9 @@
         <v>-9.2649149907908894E-3</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B43" s="2">
         <v>-1.38888888888889E-3</v>
@@ -3051,9 +3160,9 @@
         <v>-2.02364674781282E-3</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B44" s="2">
         <v>-1.01851851851852E-2</v>
@@ -3083,9 +3192,9 @@
         <v>-4.7156850083277402E-3</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
@@ -3099,9 +3208,9 @@
       <c r="I45" s="2"/>
       <c r="J45" s="2"/>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B46" s="2">
         <v>-2.4537037037037E-2</v>
@@ -3131,274 +3240,274 @@
         <v>-1.3570814088521E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
+        <v>54</v>
+      </c>
+      <c r="B47" s="2">
+        <v>-1000</v>
+      </c>
+      <c r="C47" s="2">
+        <v>-1000</v>
+      </c>
+      <c r="D47" s="2">
+        <v>-1000</v>
+      </c>
+      <c r="E47" s="2">
+        <v>-1000</v>
+      </c>
+      <c r="F47" s="2">
+        <v>-1000</v>
+      </c>
+      <c r="G47" s="2">
+        <v>-1000</v>
+      </c>
+      <c r="H47" s="2">
+        <v>-1000</v>
+      </c>
+      <c r="I47" s="2">
+        <v>-1000</v>
+      </c>
+      <c r="J47" s="2">
+        <v>-1000</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>55</v>
+      </c>
+      <c r="B48" s="2">
+        <v>-1000</v>
+      </c>
+      <c r="C48" s="2">
+        <v>-1000</v>
+      </c>
+      <c r="D48" s="2">
+        <v>-1000</v>
+      </c>
+      <c r="E48" s="2">
+        <v>-1000</v>
+      </c>
+      <c r="F48" s="2">
+        <v>-1000</v>
+      </c>
+      <c r="G48" s="2">
+        <v>-1000</v>
+      </c>
+      <c r="H48" s="2">
+        <v>-1000</v>
+      </c>
+      <c r="I48" s="2">
+        <v>-1000</v>
+      </c>
+      <c r="J48" s="2">
+        <v>-1000</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>56</v>
+      </c>
+      <c r="B49" s="2">
+        <v>-1000</v>
+      </c>
+      <c r="C49" s="2">
+        <v>-1000</v>
+      </c>
+      <c r="D49" s="2">
+        <v>-1000</v>
+      </c>
+      <c r="E49" s="2">
+        <v>-1000</v>
+      </c>
+      <c r="F49" s="2">
+        <v>-1000</v>
+      </c>
+      <c r="G49" s="2">
+        <v>-1000</v>
+      </c>
+      <c r="H49" s="2">
+        <v>-1000</v>
+      </c>
+      <c r="I49" s="2">
+        <v>-1000</v>
+      </c>
+      <c r="J49" s="2">
+        <v>-1000</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
         <v>57</v>
       </c>
-      <c r="B47" s="2">
-        <v>-1000</v>
-      </c>
-      <c r="C47" s="2">
-        <v>-1000</v>
-      </c>
-      <c r="D47" s="2">
-        <v>-1000</v>
-      </c>
-      <c r="E47" s="2">
-        <v>-1000</v>
-      </c>
-      <c r="F47" s="2">
-        <v>-1000</v>
-      </c>
-      <c r="G47" s="2">
-        <v>-1000</v>
-      </c>
-      <c r="H47" s="2">
-        <v>-1000</v>
-      </c>
-      <c r="I47" s="2">
-        <v>-1000</v>
-      </c>
-      <c r="J47" s="2">
-        <v>-1000</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
+      <c r="B50" s="2">
+        <v>-1000</v>
+      </c>
+      <c r="C50" s="2">
+        <v>-1000</v>
+      </c>
+      <c r="D50" s="2">
+        <v>-1000</v>
+      </c>
+      <c r="E50" s="2">
+        <v>-1000</v>
+      </c>
+      <c r="F50" s="2">
+        <v>-1000</v>
+      </c>
+      <c r="G50" s="2">
+        <v>-1000</v>
+      </c>
+      <c r="H50" s="2">
+        <v>-1000</v>
+      </c>
+      <c r="I50" s="2">
+        <v>-1000</v>
+      </c>
+      <c r="J50" s="2">
+        <v>-1000</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
         <v>58</v>
       </c>
-      <c r="B48" s="2">
-        <v>-1000</v>
-      </c>
-      <c r="C48" s="2">
-        <v>-1000</v>
-      </c>
-      <c r="D48" s="2">
-        <v>-1000</v>
-      </c>
-      <c r="E48" s="2">
-        <v>-1000</v>
-      </c>
-      <c r="F48" s="2">
-        <v>-1000</v>
-      </c>
-      <c r="G48" s="2">
-        <v>-1000</v>
-      </c>
-      <c r="H48" s="2">
-        <v>-1000</v>
-      </c>
-      <c r="I48" s="2">
-        <v>-1000</v>
-      </c>
-      <c r="J48" s="2">
-        <v>-1000</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
+      <c r="B51" s="2">
+        <v>-0.1</v>
+      </c>
+      <c r="C51" s="2">
+        <v>-0.1</v>
+      </c>
+      <c r="D51" s="2">
+        <v>-0.1</v>
+      </c>
+      <c r="E51" s="2">
+        <v>-0.1</v>
+      </c>
+      <c r="F51" s="2">
+        <v>-0.1</v>
+      </c>
+      <c r="G51" s="2">
+        <v>-0.1</v>
+      </c>
+      <c r="H51" s="2">
+        <v>-0.1</v>
+      </c>
+      <c r="I51" s="2">
+        <v>-0.1</v>
+      </c>
+      <c r="J51" s="2">
+        <v>-0.1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
         <v>59</v>
       </c>
-      <c r="B49" s="2">
-        <v>-1000</v>
-      </c>
-      <c r="C49" s="2">
-        <v>-1000</v>
-      </c>
-      <c r="D49" s="2">
-        <v>-1000</v>
-      </c>
-      <c r="E49" s="2">
-        <v>-1000</v>
-      </c>
-      <c r="F49" s="2">
-        <v>-1000</v>
-      </c>
-      <c r="G49" s="2">
-        <v>-1000</v>
-      </c>
-      <c r="H49" s="2">
-        <v>-1000</v>
-      </c>
-      <c r="I49" s="2">
-        <v>-1000</v>
-      </c>
-      <c r="J49" s="2">
-        <v>-1000</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
+      <c r="B52" s="2">
+        <v>-0.1</v>
+      </c>
+      <c r="C52" s="2">
+        <v>-0.1</v>
+      </c>
+      <c r="D52" s="2">
+        <v>-0.1</v>
+      </c>
+      <c r="E52" s="2">
+        <v>-0.1</v>
+      </c>
+      <c r="F52" s="2">
+        <v>-0.1</v>
+      </c>
+      <c r="G52" s="2">
+        <v>-0.1</v>
+      </c>
+      <c r="H52" s="2">
+        <v>-0.1</v>
+      </c>
+      <c r="I52" s="2">
+        <v>-0.1</v>
+      </c>
+      <c r="J52" s="2">
+        <v>-0.1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
         <v>60</v>
       </c>
-      <c r="B50" s="2">
-        <v>-1000</v>
-      </c>
-      <c r="C50" s="2">
-        <v>-1000</v>
-      </c>
-      <c r="D50" s="2">
-        <v>-1000</v>
-      </c>
-      <c r="E50" s="2">
-        <v>-1000</v>
-      </c>
-      <c r="F50" s="2">
-        <v>-1000</v>
-      </c>
-      <c r="G50" s="2">
-        <v>-1000</v>
-      </c>
-      <c r="H50" s="2">
-        <v>-1000</v>
-      </c>
-      <c r="I50" s="2">
-        <v>-1000</v>
-      </c>
-      <c r="J50" s="2">
-        <v>-1000</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
+      <c r="B53" s="2">
+        <v>-0.1</v>
+      </c>
+      <c r="C53" s="2">
+        <v>-0.1</v>
+      </c>
+      <c r="D53" s="2">
+        <v>-0.1</v>
+      </c>
+      <c r="E53" s="2">
+        <v>-0.1</v>
+      </c>
+      <c r="F53" s="2">
+        <v>-0.1</v>
+      </c>
+      <c r="G53" s="2">
+        <v>-0.1</v>
+      </c>
+      <c r="H53" s="2">
+        <v>-0.1</v>
+      </c>
+      <c r="I53" s="2">
+        <v>-0.1</v>
+      </c>
+      <c r="J53" s="2">
+        <v>-0.1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
         <v>61</v>
       </c>
-      <c r="B51" s="2">
-        <v>-0.1</v>
-      </c>
-      <c r="C51" s="2">
-        <v>-0.1</v>
-      </c>
-      <c r="D51" s="2">
-        <v>-0.1</v>
-      </c>
-      <c r="E51" s="2">
-        <v>-0.1</v>
-      </c>
-      <c r="F51" s="2">
-        <v>-0.1</v>
-      </c>
-      <c r="G51" s="2">
-        <v>-0.1</v>
-      </c>
-      <c r="H51" s="2">
-        <v>-0.1</v>
-      </c>
-      <c r="I51" s="2">
-        <v>-0.1</v>
-      </c>
-      <c r="J51" s="2">
-        <v>-0.1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
+      <c r="B54" s="2">
+        <v>-0.1</v>
+      </c>
+      <c r="C54" s="2">
+        <v>-0.1</v>
+      </c>
+      <c r="D54" s="2">
+        <v>-0.1</v>
+      </c>
+      <c r="E54" s="2">
+        <v>-0.1</v>
+      </c>
+      <c r="F54" s="2">
+        <v>-0.1</v>
+      </c>
+      <c r="G54" s="2">
+        <v>-0.1</v>
+      </c>
+      <c r="H54" s="2">
+        <v>-0.1</v>
+      </c>
+      <c r="I54" s="2">
+        <v>-0.1</v>
+      </c>
+      <c r="J54" s="2">
+        <v>-0.1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
         <v>62</v>
       </c>
-      <c r="B52" s="2">
-        <v>-0.1</v>
-      </c>
-      <c r="C52" s="2">
-        <v>-0.1</v>
-      </c>
-      <c r="D52" s="2">
-        <v>-0.1</v>
-      </c>
-      <c r="E52" s="2">
-        <v>-0.1</v>
-      </c>
-      <c r="F52" s="2">
-        <v>-0.1</v>
-      </c>
-      <c r="G52" s="2">
-        <v>-0.1</v>
-      </c>
-      <c r="H52" s="2">
-        <v>-0.1</v>
-      </c>
-      <c r="I52" s="2">
-        <v>-0.1</v>
-      </c>
-      <c r="J52" s="2">
-        <v>-0.1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>63</v>
-      </c>
-      <c r="B53" s="2">
-        <v>-0.1</v>
-      </c>
-      <c r="C53" s="2">
-        <v>-0.1</v>
-      </c>
-      <c r="D53" s="2">
-        <v>-0.1</v>
-      </c>
-      <c r="E53" s="2">
-        <v>-0.1</v>
-      </c>
-      <c r="F53" s="2">
-        <v>-0.1</v>
-      </c>
-      <c r="G53" s="2">
-        <v>-0.1</v>
-      </c>
-      <c r="H53" s="2">
-        <v>-0.1</v>
-      </c>
-      <c r="I53" s="2">
-        <v>-0.1</v>
-      </c>
-      <c r="J53" s="2">
-        <v>-0.1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>64</v>
-      </c>
-      <c r="B54" s="2">
-        <v>-0.1</v>
-      </c>
-      <c r="C54" s="2">
-        <v>-0.1</v>
-      </c>
-      <c r="D54" s="2">
-        <v>-0.1</v>
-      </c>
-      <c r="E54" s="2">
-        <v>-0.1</v>
-      </c>
-      <c r="F54" s="2">
-        <v>-0.1</v>
-      </c>
-      <c r="G54" s="2">
-        <v>-0.1</v>
-      </c>
-      <c r="H54" s="2">
-        <v>-0.1</v>
-      </c>
-      <c r="I54" s="2">
-        <v>-0.1</v>
-      </c>
-      <c r="J54" s="2">
-        <v>-0.1</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>65</v>
-      </c>
-      <c r="B56" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="C56" s="12"/>
-      <c r="D56" s="12"/>
-      <c r="E56" s="12"/>
-      <c r="F56" s="12"/>
-      <c r="G56" s="12"/>
+      <c r="B56" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C56" s="8"/>
+      <c r="D56" s="8"/>
+      <c r="E56" s="8"/>
+      <c r="F56" s="8"/>
+      <c r="G56" s="8"/>
       <c r="H56" s="2">
         <v>0</v>
       </c>
@@ -3409,24 +3518,24 @@
         <v>1.3299999999999999E-2</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>66</v>
-      </c>
-      <c r="B57" s="14">
+        <v>63</v>
+      </c>
+      <c r="B57" s="8">
         <v>3.8300000000000001E-2</v>
       </c>
-      <c r="C57" s="14"/>
-      <c r="D57" s="14"/>
-      <c r="E57" s="14">
+      <c r="C57" s="8"/>
+      <c r="D57" s="8"/>
+      <c r="E57" s="8">
         <v>3.9100000000000003E-2</v>
       </c>
-      <c r="F57" s="14"/>
-      <c r="G57" s="14"/>
-      <c r="H57" s="4">
+      <c r="F57" s="8"/>
+      <c r="G57" s="8"/>
+      <c r="H57" s="2">
         <v>4.02E-2</v>
       </c>
-      <c r="I57" s="4">
+      <c r="I57" s="2">
         <v>2.7699999999999999E-2</v>
       </c>
       <c r="J57" s="2">
